--- a/src/Excel/Bill_Excel/B2.xlsx
+++ b/src/Excel/Bill_Excel/B2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
   <si>
     <t/>
   </si>
@@ -29,7 +29,7 @@
     <t>Ngày:</t>
   </si>
   <si>
-    <t>2022-12-04 12:22:16</t>
+    <t>2022-12-07 18:02:42</t>
   </si>
   <si>
     <t>Staff:</t>
@@ -59,22 +59,37 @@
     <t>Thành tiền</t>
   </si>
   <si>
+    <t>Hamburger gà sốt BBQ (4 oz)</t>
+  </si>
+  <si>
+    <t>40.000 ₫</t>
+  </si>
+  <si>
+    <t>Gà nướng muối ớt (1 con)</t>
+  </si>
+  <si>
+    <t>130.000 ₫</t>
+  </si>
+  <si>
+    <t>520.000 ₫</t>
+  </si>
+  <si>
     <t>Tổng:</t>
   </si>
   <si>
-    <t>115.500 ₫</t>
+    <t>560.000 ₫</t>
   </si>
   <si>
     <t>Tiền nhận:</t>
   </si>
   <si>
-    <t>1.111.111 ₫</t>
+    <t>1.000.000 ₫</t>
   </si>
   <si>
     <t>Tiền thối:</t>
   </si>
   <si>
-    <t>-995.611 ₫</t>
+    <t>-440.000 ₫</t>
   </si>
 </sst>
 </file>
@@ -550,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center"/>
@@ -577,6 +592,10 @@
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -610,25 +629,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="11"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2">
       <c r="A2" t="s" s="7">
@@ -705,13 +724,38 @@
       <c r="L10" s="5"/>
     </row>
     <row r="11">
-      <c r="A11" s="6"/>
+      <c r="A11" t="n" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="B11" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F11" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G11" t="s" s="4">
+        <v>16</v>
+      </c>
+      <c r="K11" t="s" s="4">
+        <v>16</v>
+      </c>
       <c r="L11" s="5"/>
     </row>
     <row r="12">
-      <c r="A12" s="6"/>
-      <c r="B12" t="s" s="2">
-        <v>8</v>
+      <c r="A12" t="n" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="B12" t="s" s="4">
+        <v>17</v>
+      </c>
+      <c r="F12" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G12" t="s" s="4">
+        <v>18</v>
+      </c>
+      <c r="K12" t="s" s="4">
+        <v>19</v>
       </c>
       <c r="L12" s="5"/>
     </row>
@@ -721,50 +765,61 @@
     </row>
     <row r="14">
       <c r="A14" s="6"/>
-      <c r="G14" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="I14" t="s" s="4">
-        <v>16</v>
+      <c r="B14" t="s" s="2">
+        <v>8</v>
       </c>
       <c r="L14" s="5"/>
     </row>
     <row r="15">
       <c r="A15" s="6"/>
-      <c r="G15" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I15" t="s" s="4">
-        <v>18</v>
-      </c>
       <c r="L15" s="5"/>
     </row>
     <row r="16">
       <c r="A16" s="6"/>
       <c r="G16" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I16" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="14"/>
+      <c r="A17" s="6"/>
+      <c r="G17" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I17" t="s" s="4">
+        <v>23</v>
+      </c>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="6"/>
+      <c r="G18" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I18" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="24">
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="I4:L4"/>
@@ -774,13 +829,21 @@
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="B12:K12"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="B14:K14"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="I16:K16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:K18"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
